--- a/input_data/analog/analog_unsh.xlsx
+++ b/input_data/analog/analog_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/analog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/analog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AF8E17-E4DC-7643-B938-D8B05593610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EC9FAF-4C4E-BE4D-9179-6535304BDE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Отбор:</t>
   </si>
@@ -62,201 +62,192 @@
     <t>32311С Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32323С Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
   </si>
   <si>
-    <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32323С Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>32136 Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32339С Аналог LM (собств. разр.) ICX Medentis  D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32342С Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32499Суп Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32335С Аналог LM (собств. разр.) Astra Tech 3.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
+  </si>
+  <si>
+    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32331С Аналог LM (собств. разр.) Xive 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32318С Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32312Суп Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32420СLуп Аналог LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32492C Аналог LM (собств. разр.) Bego Semados 4.1 D=4.1 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32317С Аналог LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 L=14, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32313СV2уп Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2 / УПАК</t>
+  </si>
+  <si>
+    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32327Суп Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32503 Аналог LM (собств. разр.) Implantium Multi-Unit 5.5 D=5.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32308 Аналог LM (собств. разр.) Ankylos C / X D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32493C Аналог LM (собств. разр.) Bego Semados 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
+  </si>
+  <si>
+    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32348С Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32324С Аналог LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>32311Суп Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
   </si>
   <si>
-    <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32335С Аналог LM (собств. разр.) Astra Tech 3.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32342С Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32420СLопт Аналог LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
-  </si>
-  <si>
-    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32318С Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32014 Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), латунь, V.1</t>
-  </si>
-  <si>
-    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32321Суп Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32487уп Аналог LM (собств. разр.) Ankylos Multi-Unit D=4.2 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32420СLуп Аналог LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32317С Аналог LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 L=14, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32330Суп Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32492C Аналог LM (собств. разр.) Bego Semados 4.1 D=4.1 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32348С Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32327Суп Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32308 Аналог LM (собств. разр.) Ankylos C / X D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32503 Аналог LM (собств. разр.) Implantium Multi-Unit 5.5 D=5.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32313СV2уп Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2 / УПАК</t>
-  </si>
-  <si>
-    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32493C Аналог LM (собств. разр.) Bego Semados 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
-  </si>
-  <si>
-    <t>32307уп Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32324С Аналог LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>32010Суп Аналог LM (копия оригинала) Mis C1 (Conical) WP (5.0) D=5 L=12 (арт. CW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
@@ -266,37 +257,25 @@
     <t>32014Суп Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>32312Суп Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+    <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32398С Аналог LM (собств. разр.) AB Dental D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32012Суп Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), нерж. сталь, V.1 / УПАК</t>
   </si>
   <si>
-    <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32398С Аналог LM (собств. разр.) AB Dental D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>32491C Аналог LM (собств. разр.) Bego Semados 3.25/3.75 D=3.8 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>Аналог 3D</t>
   </si>
   <si>
-    <t>32003С_3D1опт Аналог 3D LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32143_3DV2опт Аналог 3D LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.2, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2</t>
   </si>
   <si>
-    <t>32011С_3D1опт Аналог 3D LM (собств. разр.) Alpha Bio Internal D=4.2 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32005С_3D1опт Аналог 3D LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>32012С_3D Аналог 3D LM (собств. разр.) Mis NP (3.3) D=3.5 L=12, нерж. сталь, V.2</t>
   </si>
   <si>
     <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1</t>
@@ -305,31 +284,19 @@
     <t>32006С_3D Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2</t>
   </si>
   <si>
-    <t>32003С_3D Аналог 3D LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32002С_3D1опт Аналог 3D LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32004С_3D1опт Аналог 3D LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32002С_3D Аналог 3D LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12, нерж. сталь, V.2</t>
+    <t>32065С_3D1опт Аналог 3D LM (собств. разр.) MegaGen AnyOne D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>32029С_3Dопт Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>32000С_3D1опт Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>32029С_3D1опт Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32029С_3Dопт Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32065С_3D1опт Аналог 3D LM (собств. разр.) MegaGen AnyOne D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>32035С_3D Аналог 3D LM (собств. разр.) Ankylos C / X D=3.5 L=12, нерж. сталь, V.2</t>
@@ -822,7 +789,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,15 +862,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="5">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>1084</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -913,15 +880,15 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -931,45 +898,45 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -990,20 +957,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1013,31 +980,29 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1047,13 +1012,15 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E15" s="19"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1063,12 +1030,10 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="7">
-        <v>40</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
         <v>25</v>
@@ -1081,13 +1046,15 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7">
+        <v>40</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1113,13 +1080,13 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1129,16 +1096,16 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
@@ -1161,31 +1128,29 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="7">
-        <v>10</v>
-      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1195,7 +1160,7 @@
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="7">
@@ -1203,25 +1168,23 @@
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E25" s="19"/>
-      <c r="F25" s="7">
-        <v>10</v>
-      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1231,28 +1194,30 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19">
+        <v>26</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="7">
         <v>13</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
         <v>13</v>
@@ -1297,11 +1262,11 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
@@ -1315,12 +1280,10 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="7">
-        <v>10</v>
-      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
         <v>10</v>
@@ -1333,10 +1296,12 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" s="19"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="7">
+        <v>4</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
         <v>10</v>
@@ -1374,36 +1339,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1413,13 +1378,13 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1429,15 +1394,15 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="7">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1447,16 +1412,16 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
@@ -1479,18 +1444,18 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="7">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>45</v>
       </c>
@@ -1522,38 +1487,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="19">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E44" s="19"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="7">
+        <v>31</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="7">
-        <v>40</v>
-      </c>
+      <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1604,23 +1569,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>53</v>
       </c>
@@ -1643,12 +1608,10 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="19"/>
-      <c r="F51" s="7">
-        <v>1</v>
-      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
         <v>3</v>
@@ -1686,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
         <v>57</v>
       </c>
@@ -1709,29 +1672,33 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" s="19"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E56" s="19"/>
-      <c r="F56" s="8"/>
+      <c r="F56" s="7">
+        <v>4</v>
+      </c>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1752,7 +1719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
@@ -1768,19 +1735,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E59" s="19"/>
-      <c r="F59" s="7">
-        <v>4</v>
-      </c>
+      <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
         <v>2</v>
@@ -1802,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18" t="s">
         <v>64</v>
       </c>
@@ -1818,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="18" t="s">
         <v>65</v>
       </c>
@@ -1873,61 +1838,63 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A66" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E66" s="19"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="7">
+        <v>10</v>
+      </c>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A68" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1937,28 +1904,28 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="7">
-        <v>10</v>
-      </c>
+      <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" s="19"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="7">
+        <v>2</v>
+      </c>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
         <v>1</v>
@@ -1971,18 +1938,16 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E71" s="19"/>
-      <c r="F71" s="7">
-        <v>3</v>
-      </c>
+      <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A72" s="18" t="s">
         <v>75</v>
       </c>
@@ -2030,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A75" s="18" t="s">
         <v>78</v>
       </c>
@@ -2069,47 +2034,47 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E77" s="19"/>
-      <c r="F77" s="7">
-        <v>35</v>
-      </c>
+      <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19">
-        <v>1</v>
-      </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="20">
+        <v>166</v>
+      </c>
+      <c r="E78" s="20"/>
+      <c r="F78" s="5">
+        <v>109</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2119,13 +2084,13 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2135,47 +2100,49 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E81" s="19"/>
-      <c r="F81" s="8"/>
+      <c r="F81" s="7">
+        <v>9</v>
+      </c>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="20">
-        <v>229</v>
-      </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="5">
-        <v>109</v>
-      </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19">
+        <v>7</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A83" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E83" s="19"/>
-      <c r="F83" s="8"/>
+      <c r="F83" s="7">
+        <v>100</v>
+      </c>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2185,29 +2152,29 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A85" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2217,13 +2184,13 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2233,31 +2200,29 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A88" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="7">
-        <v>9</v>
-      </c>
+      <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2267,241 +2232,41 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19">
-        <v>5</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="19">
-        <v>5</v>
-      </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="19">
-        <v>105</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="7">
-        <v>100</v>
-      </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="19">
-        <v>5</v>
-      </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19">
-        <v>5</v>
-      </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="19">
-        <v>3</v>
-      </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="19">
-        <v>3</v>
-      </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19">
-        <v>3</v>
-      </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="19">
-        <v>2</v>
-      </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="19">
-        <v>1</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="21">
-        <v>1785</v>
-      </c>
-      <c r="E101" s="21"/>
-      <c r="F101" s="10">
-        <v>581</v>
-      </c>
-      <c r="G101" s="11"/>
-      <c r="H101" s="9">
-        <v>1204</v>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="21">
+        <v>1728</v>
+      </c>
+      <c r="E90" s="21"/>
+      <c r="F90" s="10">
+        <v>537</v>
+      </c>
+      <c r="G90" s="11"/>
+      <c r="H90" s="9">
+        <v>1191</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="197">
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:E97"/>
+  <mergeCells count="175">
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:E92"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="A84:C84"/>

--- a/input_data/analog/analog_unsh.xlsx
+++ b/input_data/analog/analog_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/analog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/analog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EC9FAF-4C4E-BE4D-9179-6535304BDE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB81EF7-5CC4-424B-A7F7-CB2F2E87A66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Отбор:</t>
   </si>
@@ -62,12 +62,15 @@
     <t>32311С Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32420СLуп Аналог LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
     <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>32323С Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
@@ -77,214 +80,241 @@
     <t>32136 Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32342С Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32311Суп Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32313СV2уп Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2 / УПАК</t>
+  </si>
+  <si>
+    <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32307уп Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32335С Аналог LM (собств. разр.) Astra Tech 3.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32323Суп Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32318С Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
+  </si>
+  <si>
+    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32492C Аналог LM (собств. разр.) Bego Semados 4.1 D=4.1 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32325С Аналог LM (собств. разр.) Adin RS (3.5/3.75/4.2/5.0/6.0) D=3.75 L=12, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32331С Аналог LM (собств. разр.) Xive 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32503 Аналог LM (собств. разр.) Implantium Multi-Unit 5.5 D=5.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32420СNопт Аналог LM (собств. разр.) Nobel Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32012 Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), латунь, V.1</t>
+  </si>
+  <si>
+    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32331Суп Аналог LM (собств. разр.) Xive 4.5 D=4.5 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32339С Аналог LM (собств. разр.) ICX Medentis  D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32342С Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32499Суп Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32335С Аналог LM (собств. разр.) Astra Tech 3.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
-  </si>
-  <si>
-    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32331С Аналог LM (собств. разр.) Xive 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32318С Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1</t>
+    <t>32317С Аналог LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 L=14, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32327Суп Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32308 Аналог LM (собств. разр.) Ankylos C / X D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32493C Аналог LM (собств. разр.) Bego Semados 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
+  </si>
+  <si>
+    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32348С Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32324С Аналог LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32010Суп Аналог LM (копия оригинала) Mis C1 (Conical) WP (5.0) D=5 L=12 (арт. CW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32021Суп Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32014Суп Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>32312Суп Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1 / УПАК</t>
   </si>
   <si>
-    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32420СLуп Аналог LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32492C Аналог LM (собств. разр.) Bego Semados 4.1 D=4.1 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32317С Аналог LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 L=14, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32313СV2уп Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2 / УПАК</t>
-  </si>
-  <si>
-    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32327Суп Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32503 Аналог LM (собств. разр.) Implantium Multi-Unit 5.5 D=5.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32308 Аналог LM (собств. разр.) Ankylos C / X D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32493C Аналог LM (собств. разр.) Bego Semados 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
-  </si>
-  <si>
-    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32348С Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32324С Аналог LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32311Суп Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32010Суп Аналог LM (копия оригинала) Mis C1 (Conical) WP (5.0) D=5 L=12 (арт. CW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32021Суп Аналог LM (копия оригинала) Xive 4.5 D=4.6 L=12.8 (арт. 45-2651), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32014Суп Аналог LM (копия оригинала) Mis WP (5.0/6.0) D=4.65 L=12 (арт. MW-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+    <t>32012Суп Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32491C Аналог LM (собств. разр.) Bego Semados 3.25/3.75 D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32398С Аналог LM (собств. разр.) AB Dental D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>32398С Аналог LM (собств. разр.) AB Dental D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32012Суп Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32491C Аналог LM (собств. разр.) Bego Semados 3.25/3.75 D=3.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>Аналог 3D</t>
   </si>
   <si>
+    <t>32002С_3D Аналог 3D LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32006С_3D Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2</t>
+  </si>
+  <si>
     <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2</t>
   </si>
   <si>
-    <t>32012С_3D Аналог 3D LM (собств. разр.) Mis NP (3.3) D=3.5 L=12, нерж. сталь, V.2</t>
+    <t>32065С_3D1уп Аналог 3D LM (собств. разр.) MegaGen AnyOne D=4 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
     <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32006С_3D Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2</t>
+    <t>32003С_3D Аналог 3D LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32029С_3D1уп Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
     <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32007С_3D Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32004С_3D Аналог 3D LM (собств. разр.) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32065С_3D1опт Аналог 3D LM (собств. разр.) MegaGen AnyOne D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
@@ -789,7 +819,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,15 +892,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>1562</v>
+        <v>1735</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="5">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>1134</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -880,7 +910,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="7">
@@ -888,7 +918,7 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -898,29 +928,29 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -930,13 +960,13 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -946,47 +976,47 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="7">
-        <v>30</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7">
+        <v>30</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -996,13 +1026,13 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1012,7 +1042,7 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="7">
@@ -1020,7 +1050,7 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1030,13 +1060,15 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7">
+        <v>40</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1046,15 +1078,15 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1064,13 +1096,13 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1080,29 +1112,29 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1112,13 +1144,15 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E21" s="19"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1128,13 +1162,13 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1144,31 +1178,29 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="7">
-        <v>20</v>
-      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1178,13 +1210,13 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1194,33 +1226,31 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="7">
-        <v>13</v>
-      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1230,29 +1260,31 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E29" s="19"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="7">
+        <v>20</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1262,15 +1294,15 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1280,13 +1312,13 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1296,113 +1328,113 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E32" s="19"/>
-      <c r="F32" s="7">
-        <v>4</v>
-      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E35" s="19"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="7">
+        <v>10</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="7">
+        <v>4</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="7">
-        <v>35</v>
-      </c>
+      <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1412,13 +1444,13 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1428,97 +1460,93 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="7">
-        <v>200</v>
-      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="19">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E44" s="19"/>
-      <c r="F44" s="7">
-        <v>31</v>
-      </c>
+      <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1528,13 +1556,13 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1544,13 +1572,15 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E47" s="19"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="7">
+        <v>31</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1560,13 +1590,13 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1576,29 +1606,29 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1608,13 +1638,15 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E51" s="19"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="7">
+        <v>200</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1624,13 +1656,13 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1640,13 +1672,13 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1656,13 +1688,13 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1675,30 +1707,26 @@
         <v>4</v>
       </c>
       <c r="E55" s="19"/>
-      <c r="F55" s="7">
-        <v>1</v>
-      </c>
+      <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E56" s="19"/>
-      <c r="F56" s="7">
-        <v>4</v>
-      </c>
+      <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1708,47 +1736,47 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E57" s="19"/>
-      <c r="F57" s="7">
-        <v>6</v>
-      </c>
+      <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59" s="19"/>
-      <c r="F59" s="8"/>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1758,64 +1786,68 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E62" s="19"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="7">
+        <v>4</v>
+      </c>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E63" s="19"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="7">
+        <v>6</v>
+      </c>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
         <v>67</v>
       </c>
@@ -1838,13 +1870,13 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1854,78 +1886,74 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E66" s="19"/>
-      <c r="F66" s="7">
-        <v>10</v>
-      </c>
+      <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A68" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" s="19"/>
-      <c r="F70" s="7">
-        <v>2</v>
-      </c>
+      <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
         <v>1</v>
@@ -1938,10 +1966,12 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E71" s="19"/>
-      <c r="F71" s="8"/>
+      <c r="F71" s="7">
+        <v>10</v>
+      </c>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
         <v>1</v>
@@ -1963,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A73" s="18" t="s">
         <v>76</v>
       </c>
@@ -1995,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A75" s="18" t="s">
         <v>78</v>
       </c>
@@ -2043,72 +2073,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="20">
-        <v>166</v>
-      </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="5">
-        <v>109</v>
-      </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19">
+        <v>36</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="7">
+        <v>35</v>
+      </c>
+      <c r="G78" s="8"/>
+      <c r="H78" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A80" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E80" s="19"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E81" s="19"/>
-      <c r="F81" s="7">
-        <v>9</v>
-      </c>
+      <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2118,31 +2146,31 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19">
-        <v>105</v>
-      </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="7">
-        <v>100</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="7">
-        <v>5</v>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="20">
+        <v>211</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="5">
+        <v>109</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="5">
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2152,13 +2180,13 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2168,29 +2196,29 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A86" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2200,29 +2228,31 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A88" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="8"/>
+      <c r="F88" s="7">
+        <v>9</v>
+      </c>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2232,41 +2262,223 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19">
+        <v>5</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="19">
+        <v>105</v>
+      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="7">
+        <v>100</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="H91" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="19">
+        <v>5</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="19">
+        <v>5</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19">
         <v>3</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="21">
-        <v>1728</v>
-      </c>
-      <c r="E90" s="21"/>
-      <c r="F90" s="10">
-        <v>537</v>
-      </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="9">
-        <v>1191</v>
+      <c r="E94" s="19"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="19">
+        <v>3</v>
+      </c>
+      <c r="E95" s="19"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="19">
+        <v>3</v>
+      </c>
+      <c r="E96" s="19"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="19">
+        <v>3</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19">
+        <v>2</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="19">
+        <v>1</v>
+      </c>
+      <c r="E99" s="19"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="21">
+        <v>1946</v>
+      </c>
+      <c r="E100" s="21"/>
+      <c r="F100" s="10">
+        <v>540</v>
+      </c>
+      <c r="G100" s="11"/>
+      <c r="H100" s="9">
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="195">
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:E97"/>
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="A84:C84"/>

--- a/input_data/analog/analog_unsh.xlsx
+++ b/input_data/analog/analog_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/analog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/analog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB81EF7-5CC4-424B-A7F7-CB2F2E87A66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA3D07B-530D-634F-AAF0-F4864D477BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Отбор:</t>
   </si>
@@ -62,201 +62,192 @@
     <t>32311С Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32136 Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32323С Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32311Суп Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32420С Аналог LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32342С Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32307уп Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32335С Аналог LM (собств. разр.) Astra Tech 3.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32420СLуп Аналог LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1 / УПАК</t>
   </si>
   <si>
-    <t>32336С Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32323С Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32313СV2 Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32136 Аналог LM (собств. разр.) Implantium Multi-Unit 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32342С Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32336Суп Аналог LM (собств. разр.) MegaGen AnyRidge D=4 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32342Суп Аналог LM (собств. разр.) MegaGen AnyOne D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32319С Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1</t>
+    <t>32318С Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
+  </si>
+  <si>
+    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>32312С Аналог LM (собств. разр.) Implantium, Impro D=3.4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32432С Аналог LM (собств. разр.) Osstem Implant Multi-Unit D=4.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32311Суп Аналог LM (собств. разр.) Implantium, Impro D=3.8/4.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32314С Аналог LM (собств. разр.) Nobel Active NP (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
+    <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32325С Аналог LM (собств. разр.) Adin RS (3.5/3.75/4.2/5.0/6.0) D=3.75 L=12, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32331С Аналог LM (собств. разр.) Xive 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32503 Аналог LM (собств. разр.) Implantium Multi-Unit 5.5 D=5.5 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
     <t>32499С Аналог LM (собств. разр.) Neodent Grand Morse D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32317С Аналог LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 L=14, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32339С Аналог LM (собств. разр.) ICX Medentis  D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32492C Аналог LM (собств. разр.) Bego Semados 4.1 D=4.1 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32327Суп Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32420СLопт Аналог LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32308 Аналог LM (собств. разр.) Ankylos C / X D=3.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>32493C Аналог LM (собств. разр.) Bego Semados 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
+  </si>
+  <si>
+    <t>32348С Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32324С Аналог LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32313СV2уп Аналог LM (собств. разр.) Osstem Implant Mini (2 резьбы) (3.5) D=3.5 L=12.5, нерж. сталь, V.2 / УПАК</t>
   </si>
   <si>
-    <t>32347С Аналог LM (собств. разр.) Anthogyr Axiom D=3.45 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32307уп Аналог LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32335С Аналог LM (собств. разр.) Astra Tech 3.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32323Суп Аналог LM (собств. разр.) Mis SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32315С Аналог LM (собств. разр.) Nobel Active RP (4.5) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32313С Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32345С Аналог LM (собств. разр.) Straumann SynOcta RN (4.8) D=4.8 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32318С Аналог LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=3.35 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32019С Аналог LM (копия оригинала) Xive 3.4 D=3.5 L=13 (арт. 45-2631), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32009Т Аналог LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12 (арт. CS-RSM10), ti, V.1</t>
-  </si>
-  <si>
-    <t>32029Суп Аналог LM (копия оригинала) MegaGen AnyRidge D=4.4 L=12 (арт. AANLAF4055), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32348Суп Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32492C Аналог LM (собств. разр.) Bego Semados 4.1 D=4.1 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32334С Аналог LM (собств. разр.) Niko 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32325С Аналог LM (собств. разр.) Adin RS (3.5/3.75/4.2/5.0/6.0) D=3.75 L=12, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32331С Аналог LM (собств. разр.) Xive 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32333С Аналог LM (собств. разр.) Niko 3.5 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32503 Аналог LM (собств. разр.) Implantium Multi-Unit 5.5 D=5.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32420СNопт Аналог LM (собств. разр.) Nobel Multi-Unit D=4.8 L=14.7, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32322С Аналог LM (собств. разр.) Mis NP (3.3) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32012 Аналог LM (копия оригинала) Mis NP (3.3) D=3.3 L=12 (арт. MN-RSM10), латунь, V.1</t>
-  </si>
-  <si>
-    <t>32011Суп Аналог LM (копия оригинала) Alpha Bio Internal D=4.2 L=12.5 (арт. 5080), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32032Суп Аналог LM (копия оригинала) ICX Medentis  D=4 L=15 (арт. С-006-010001), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32004Суп Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), ti, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32316С Аналог LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32080Суп Аналог LM (копия оригинала) Straumann SynOcta RN (4.8) D=4.8 L=12 (арт. 048.124), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32035С Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32331Суп Аналог LM (собств. разр.) Xive 4.5 D=4.5 L=12.5, нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32329С Аналог LM (собств. разр.) Xive 3.4 D=3.4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32327С Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32001С Аналог LM (копия оригинала) Implantium 3.4, Impro D=4 L=12 (арт. DAN34), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32321С Аналог LM (собств. разр.) Alpha Bio Internal D=4.2 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32065Суп Аналог LM (копия оригинала) MegaGen AnyOne D=4.3 L=12 (арт. LA400H), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32319Суп Аналог LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.8 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32004С Аналог LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=3.55 L=10 (арт. 36697), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32339С Аналог LM (собств. разр.) ICX Medentis  D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32317С Аналог LM (собств. разр.) Astra Tech 4.5/5.0 D=4.5 L=14, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32327Суп Аналог LM (собств. разр.) Nobel Replace Select 4.3 D=4.3 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32313Суп Аналог LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12.5, нерж. сталь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32308 Аналог LM (собств. разр.) Ankylos C / X D=3.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32389С Аналог LM (собств. разр.) Sky Bredent D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32035Суп Аналог LM (копия оригинала) Ankylos C / X D=3.5 L=11 (арт. 17-4221), латунь, V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>32330С Аналог LM (собств. разр.) Xive 3.8 D=3.9 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32125Суп Аналог LM (копия оригинала) Alpha Bio Conical Narrow D=3.2 L=12 (арт. IA-CHC_7338), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>32493C Аналог LM (собств. разр.) Bego Semados 4.5 D=4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32395С Аналог LM (собств. разр.) Zimmer 3.5, нерж. сталь V.1</t>
-  </si>
-  <si>
-    <t>32002С Аналог LM (копия оригинала) Osstem Implant Mini (3.5) D=3.5 L=15 (арт. GSTLA350), нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32348С Аналог LM (собств. разр.) Alpha Bio Conical Narrow D=3.2 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32324С Аналог LM (собств. разр.) Mis WP (5.0/6.0) D=4.7 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
     <t>32008Суп Аналог LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=3.35 L=12.75 (арт. CN-RSM10), нерж. сталь, V.1 / В БЛИСТЕРЕ</t>
   </si>
   <si>
@@ -278,58 +269,43 @@
     <t>32491C Аналог LM (собств. разр.) Bego Semados 3.25/3.75 D=3.8 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
+    <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>32398С Аналог LM (собств. разр.) AB Dental D=4 L=12.5, нерж. сталь, V.1</t>
   </si>
   <si>
-    <t>32013Туп Аналог LM (копия оригинала) Mis SP (3.75/4.2) D=3.8 L=12 (арт. MD-RSM10), ti, V.1 / В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>Аналог 3D</t>
   </si>
   <si>
+    <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32006С_3D Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
     <t>32002С_3D Аналог 3D LM (собств. разр.) Osstem Implant Mini (3.5) D=3.5 L=12, нерж. сталь, V.2</t>
   </si>
   <si>
-    <t>32006С_3D Аналог 3D LM (собств. разр.) Astra Tech 3.5/4.0 D=3.5 L=12, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32065С_3D1уп Аналог 3D LM (собств. разр.) MegaGen AnyOne D=4 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1</t>
+    <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
+  </si>
+  <si>
+    <t>32007С_3D Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2</t>
   </si>
   <si>
     <t>32003С_3D Аналог 3D LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=12, нерж. сталь, V.2</t>
   </si>
   <si>
-    <t>32029С_3D1уп Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=12, нерж. сталь, V.2 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>32000С_3D Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32007С_3D Аналог 3D LM (собств. разр.) Astra Tech 4.5/5.0 D=5 L=13, нерж. сталь, V.2</t>
-  </si>
-  <si>
-    <t>32004С_3D Аналог 3D LM (собств. разр.) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=4 L=12.5, нерж. сталь, V.1</t>
-  </si>
-  <si>
-    <t>32065С_3D1опт Аналог 3D LM (собств. разр.) MegaGen AnyOne D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>32029С_3Dопт Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=11.5, нерж. сталь, V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>32000С_3D1опт Аналог 3D LM (собств. разр.) Implantium D=3.8/4.5 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>32029С_3D1опт Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=12, нерж. сталь, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>32035С_3D Аналог 3D LM (собств. разр.) Ankylos C / X D=3.5 L=12, нерж. сталь, V.2</t>
+  </si>
+  <si>
+    <t>32029С_3D Аналог 3D LM (собств. разр.) MegaGen AnyRidge D=4 L=12, нерж. сталь, V.2</t>
   </si>
   <si>
     <t>32041_3D Аналог 3D LM (собств. разр.) Biomet 3i Certain 3.4 D=3.5 L=12, нерж. сталь, V.2</t>
@@ -819,7 +795,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +868,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>1735</v>
+        <v>1462</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="5">
@@ -900,7 +876,7 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>1304</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -910,7 +886,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="7">
@@ -918,7 +894,7 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -928,45 +904,45 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -976,31 +952,31 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7">
+        <v>30</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="7">
-        <v>30</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1010,65 +986,65 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7">
+        <v>40</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E15" s="19"/>
-      <c r="F15" s="7">
-        <v>10</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="7">
-        <v>40</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1078,15 +1054,13 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="7">
-        <v>10</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1096,13 +1070,13 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1112,29 +1086,31 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1144,15 +1120,15 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1162,13 +1138,15 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7">
+        <v>20</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1178,13 +1156,13 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1194,29 +1172,33 @@
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7">
+        <v>10</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E25" s="19"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="7">
+        <v>13</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1226,31 +1208,29 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1260,31 +1240,29 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E29" s="19"/>
-      <c r="F29" s="7">
-        <v>20</v>
-      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1294,15 +1272,13 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="7">
-        <v>13</v>
-      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1312,13 +1288,15 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="7">
+        <v>10</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1328,16 +1306,18 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E32" s="19"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="7">
+        <v>4</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>36</v>
       </c>
@@ -1353,20 +1333,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1376,33 +1356,29 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E35" s="19"/>
-      <c r="F35" s="7">
-        <v>10</v>
-      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="7">
-        <v>4</v>
-      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1412,13 +1388,13 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1428,141 +1404,145 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="7">
+        <v>200</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E42" s="19"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="7">
+        <v>31</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1572,15 +1552,13 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E47" s="19"/>
-      <c r="F47" s="7">
-        <v>31</v>
-      </c>
+      <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1590,45 +1568,45 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1638,31 +1616,29 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="E51" s="19"/>
-      <c r="F51" s="7">
-        <v>200</v>
-      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1672,13 +1648,13 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1691,42 +1667,46 @@
         <v>4</v>
       </c>
       <c r="E54" s="19"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19">
+        <v>6</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="7">
         <v>4</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1736,29 +1716,29 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1768,15 +1748,15 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1786,13 +1766,13 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1802,13 +1782,13 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1818,36 +1798,32 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E62" s="19"/>
-      <c r="F62" s="7">
-        <v>4</v>
-      </c>
+      <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E63" s="19"/>
-      <c r="F63" s="7">
-        <v>6</v>
-      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
         <v>67</v>
       </c>
@@ -1886,13 +1862,15 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E66" s="19"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="7">
+        <v>10</v>
+      </c>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1902,13 +1880,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1918,13 +1896,13 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1934,16 +1912,16 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="18" t="s">
         <v>73</v>
       </c>
@@ -1966,12 +1944,10 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E71" s="19"/>
-      <c r="F71" s="7">
-        <v>10</v>
-      </c>
+      <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
         <v>1</v>
@@ -1993,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A73" s="18" t="s">
         <v>76</v>
       </c>
@@ -2032,10 +2008,12 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E75" s="19"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="7">
+        <v>35</v>
+      </c>
       <c r="G75" s="8"/>
       <c r="H75" s="7">
         <v>1</v>
@@ -2080,18 +2058,16 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E78" s="19"/>
-      <c r="F78" s="7">
-        <v>35</v>
-      </c>
+      <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="18" t="s">
         <v>82</v>
       </c>
@@ -2107,20 +2083,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="18" t="s">
+    <row r="80" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19">
-        <v>1</v>
-      </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="7">
-        <v>1</v>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="20">
+        <v>171</v>
+      </c>
+      <c r="E80" s="20"/>
+      <c r="F80" s="5">
+        <v>109</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="5">
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2130,13 +2108,13 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2146,31 +2124,31 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="20">
-        <v>211</v>
-      </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="5">
-        <v>109</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="5">
-        <v>102</v>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19">
+        <v>18</v>
+      </c>
+      <c r="E83" s="19"/>
+      <c r="F83" s="7">
+        <v>9</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2180,29 +2158,31 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A85" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E85" s="19"/>
-      <c r="F85" s="8"/>
+      <c r="F85" s="7">
+        <v>100</v>
+      </c>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2212,13 +2192,13 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2228,13 +2208,13 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2244,31 +2224,29 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="7">
-        <v>9</v>
-      </c>
+      <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2278,197 +2256,51 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A91" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E91" s="19"/>
-      <c r="F91" s="7">
-        <v>100</v>
-      </c>
+      <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="19">
-        <v>5</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="19">
-        <v>5</v>
-      </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="19">
-        <v>3</v>
-      </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="19">
-        <v>3</v>
-      </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="19">
-        <v>3</v>
-      </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19">
-        <v>2</v>
-      </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="19">
-        <v>1</v>
-      </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="21">
-        <v>1946</v>
-      </c>
-      <c r="E100" s="21"/>
-      <c r="F100" s="10">
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="21">
+        <v>1633</v>
+      </c>
+      <c r="E92" s="21"/>
+      <c r="F92" s="10">
         <v>540</v>
       </c>
-      <c r="G100" s="11"/>
-      <c r="H100" s="9">
-        <v>1406</v>
+      <c r="G92" s="11"/>
+      <c r="H92" s="9">
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="195">
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:E97"/>
+  <mergeCells count="179">
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="A89:C89"/>
